--- a/classInfo.xlsx
+++ b/classInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yechen/Documents/Python/icsCreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ye/GitHub/icsCreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8935B4C1-BE7A-E149-A2B9-7528E1D111D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E049784-80C9-EA4B-92A9-FF4A5C2889D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="11060" windowWidth="14360" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27700" yWindow="9700" windowWidth="14360" windowHeight="15980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>className </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -56,15 +56,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>体测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>专业英语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明法楼西楼C302室</t>
+  </si>
+  <si>
+    <t>民法学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明法楼西楼C201室</t>
+  </si>
+  <si>
+    <t>法理学</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明法楼东楼C403室</t>
+  </si>
+  <si>
+    <t>新时代中国特色社会主义理论与实践</t>
+  </si>
+  <si>
+    <t>明法楼西楼A302室</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -106,6 +129,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,9 +167,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -437,17 +466,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,55 +500,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -527,7 +601,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -536,7 +610,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -545,7 +619,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -554,7 +628,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -563,7 +637,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -572,7 +646,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -581,7 +655,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -590,7 +664,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
